--- a/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:22:57+00:00</t>
+    <t>2025-11-14T07:24:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:24:46+00:00</t>
+    <t>2025-11-14T07:30:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T07:30:49+00:00</t>
+    <t>2025-11-14T08:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T08:50:36+00:00</t>
+    <t>2025-11-18T17:20:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Appointment</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Appointment|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -472,6 +472,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-appointment|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Appointment.meta.security</t>
   </si>
   <si>
@@ -637,7 +640,7 @@
     <t>appointmentOperator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-appointment-operator}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-appointment-operator|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -794,7 +797,7 @@
     <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty|2.2.0-ballot</t>
   </si>
   <si>
     <t>.performer.AssignedPerson.code</t>
@@ -812,7 +815,7 @@
     <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276|2.0.0</t>
   </si>
   <si>
     <t>.code</t>
@@ -1007,7 +1010,7 @@
     <t>Appointment.slot</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-slot)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-slot|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1186,7 +1189,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|PractitionerRole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
+    <t xml:space="preserve">Reference(Device|4.0.1|PractitionerRole|4.0.1|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1629,7 +1632,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.17578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2868,7 +2871,7 @@
         <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>79</v>
@@ -2939,10 +2942,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2965,16 +2968,16 @@
         <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3000,13 +3003,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3024,7 +3027,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3056,10 +3059,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3082,16 +3085,16 @@
         <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3117,13 +3120,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3141,7 +3144,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3173,10 +3176,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3202,13 +3205,13 @@
         <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3258,7 +3261,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3290,10 +3293,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3316,16 +3319,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3351,13 +3354,13 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3375,7 +3378,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3407,14 +3410,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3433,16 +3436,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3492,7 +3495,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3510,7 +3513,7 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3524,14 +3527,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3550,16 +3553,16 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3609,7 +3612,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3627,7 +3630,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3641,10 +3644,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3670,10 +3673,10 @@
         <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3722,7 +3725,7 @@
         <v>117</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3754,13 +3757,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>79</v>
@@ -3782,13 +3785,13 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3839,7 +3842,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -3848,7 +3851,7 @@
         <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>119</v>
@@ -3871,10 +3874,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3900,16 +3903,16 @@
         <v>111</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3958,7 +3961,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -3976,7 +3979,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -3990,10 +3993,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4016,13 +4019,13 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4073,7 +4076,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4088,27 +4091,27 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4131,16 +4134,16 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4166,13 +4169,13 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4190,7 +4193,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>90</v>
@@ -4205,27 +4208,27 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4248,13 +4251,13 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4281,11 +4284,11 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -4303,7 +4306,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4335,10 +4338,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4361,13 +4364,13 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4394,11 +4397,11 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4416,7 +4419,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4434,10 +4437,10 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -4448,10 +4451,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4474,16 +4477,16 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4509,11 +4512,11 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4531,7 +4534,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4546,10 +4549,10 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4563,10 +4566,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4589,13 +4592,13 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4622,11 +4625,11 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4644,7 +4647,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4662,13 +4665,13 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4676,10 +4679,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4702,13 +4705,13 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4735,11 +4738,11 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -4757,7 +4760,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4775,24 +4778,24 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4815,13 +4818,13 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4848,13 +4851,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -4872,7 +4875,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -4887,10 +4890,10 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4899,15 +4902,15 @@
         <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4930,13 +4933,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4987,7 +4990,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5002,10 +5005,10 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5019,10 +5022,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5045,16 +5048,16 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5104,7 +5107,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5119,27 +5122,27 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5165,10 +5168,10 @@
         <v>104</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5219,7 +5222,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5237,24 +5240,24 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5277,13 +5280,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5334,7 +5337,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5349,16 +5352,16 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5366,10 +5369,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5395,10 +5398,10 @@
         <v>126</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5449,7 +5452,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5464,27 +5467,27 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5510,10 +5513,10 @@
         <v>126</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5564,7 +5567,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5579,27 +5582,27 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5622,13 +5625,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5679,7 +5682,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5694,13 +5697,13 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5711,10 +5714,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5737,13 +5740,13 @@
         <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5794,7 +5797,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -5812,7 +5815,7 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -5826,10 +5829,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5852,16 +5855,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5911,7 +5914,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -5926,13 +5929,13 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -5943,10 +5946,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5972,13 +5975,13 @@
         <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6028,7 +6031,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6043,27 +6046,27 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6089,10 +6092,10 @@
         <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6143,7 +6146,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6161,28 +6164,28 @@
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6201,13 +6204,13 @@
         <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6258,7 +6261,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6273,10 +6276,10 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6290,10 +6293,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6316,13 +6319,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6373,7 +6376,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>90</v>
@@ -6385,30 +6388,30 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6520,10 +6523,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6637,14 +6640,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6666,16 +6669,16 @@
         <v>111</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>114</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6724,7 +6727,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6742,7 +6745,7 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -6756,10 +6759,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6782,16 +6785,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6817,13 +6820,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -6841,7 +6844,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -6859,7 +6862,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>108</v>
@@ -6868,15 +6871,15 @@
         <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6899,13 +6902,13 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6956,7 +6959,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -6974,24 +6977,24 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7014,13 +7017,13 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7047,13 +7050,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7071,7 +7074,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7089,10 +7092,10 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7103,10 +7106,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7129,13 +7132,13 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7162,13 +7165,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7186,7 +7189,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>90</v>
@@ -7204,24 +7207,24 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7244,13 +7247,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7301,7 +7304,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7333,10 +7336,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7359,16 +7362,16 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7418,7 +7421,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7433,10 +7436,10 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -7445,7 +7448,7 @@
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T17:20:39+00:00</t>
+    <t>2025-12-05T08:27:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:27:25+00:00</t>
+    <t>2025-12-05T08:30:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:30:09+00:00</t>
+    <t>2025-12-05T08:32:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:32:19+00:00</t>
+    <t>2025-12-05T09:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
+++ b/nr-add-collab/ig/StructureDefinition-fr-core-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T09:13:38+00:00</t>
+    <t>2025-12-05T09:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
